--- a/MEDIA/2998_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15735</v>
+        <v>15285</v>
       </c>
       <c r="E8" t="n">
         <v>52</v>
@@ -968,16 +968,16 @@
         <v>5996</v>
       </c>
       <c r="G8" t="n">
-        <v>38.1</v>
+        <v>39.2</v>
       </c>
       <c r="H8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" t="n">
-        <v>6394</v>
+        <v>5944</v>
       </c>
       <c r="J8" t="n">
-        <v>40.6</v>
+        <v>38.9</v>
       </c>
       <c r="K8" t="n">
         <v>7</v>
@@ -986,7 +986,7 @@
         <v>550</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>1540</v>
       </c>
       <c r="S8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1013,7 +1013,7 @@
         <v>1255</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA8" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20241</v>
+        <v>20121</v>
       </c>
       <c r="E21" t="n">
         <v>85</v>
@@ -2125,16 +2125,16 @@
         <v>10718</v>
       </c>
       <c r="G21" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="H21" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" t="n">
-        <v>6063</v>
+        <v>5943</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="K21" t="n">
         <v>12</v>
@@ -2170,7 +2170,7 @@
         <v>2090</v>
       </c>
       <c r="V21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA21" t="n">
         <v>102</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26218</v>
+        <v>26023</v>
       </c>
       <c r="E26" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" t="n">
-        <v>11932</v>
+        <v>11737</v>
       </c>
       <c r="G26" t="n">
-        <v>45.5</v>
+        <v>45.1</v>
       </c>
       <c r="H26" t="n">
         <v>74</v>
@@ -2579,7 +2579,7 @@
         <v>6381</v>
       </c>
       <c r="J26" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="K26" t="n">
         <v>14</v>
@@ -2588,7 +2588,7 @@
         <v>2210</v>
       </c>
       <c r="M26" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>820</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
         <v>19</v>
@@ -2615,7 +2615,7 @@
         <v>3225</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA26" t="n">
         <v>138</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18597</v>
+        <v>18837</v>
       </c>
       <c r="E32" t="n">
         <v>64</v>
@@ -3104,16 +3104,16 @@
         <v>7505</v>
       </c>
       <c r="G32" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="H32" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I32" t="n">
-        <v>7382</v>
+        <v>7622</v>
       </c>
       <c r="J32" t="n">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="K32" t="n">
         <v>13</v>
@@ -3122,7 +3122,7 @@
         <v>1410</v>
       </c>
       <c r="M32" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>1920</v>
       </c>
       <c r="V32" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA32" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>608773</v>
+        <v>608248</v>
       </c>
       <c r="E34" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F34" t="n">
-        <v>265644</v>
+        <v>265449</v>
       </c>
       <c r="G34" t="n">
         <v>43.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="I34" t="n">
-        <v>207705</v>
+        <v>207375</v>
       </c>
       <c r="J34" t="n">
         <v>34.1</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="AA34" t="n">
         <v>110</v>
